--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCGAME\LIMBO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79317C-EAB1-49CD-A9C2-B78D4E9C50A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C16C828-99B8-4312-9725-8C0E2F85C3B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B26AEA29-9055-4D64-A379-36CEB0EE9BB8}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>NOT RANDOM</t>
+    <t>RANDOM</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
